--- a/EveristusA_ProductSprintBacklog.xlsx
+++ b/EveristusA_ProductSprintBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Everistus\Documents\_OnlineClasses\OOSW\TermProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A5D5F8-397F-4A9A-A3B6-7F42CA97226D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62A4837-1416-4B97-AC60-555C2ECBCD14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="719" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="719" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proposed Product Backlog" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="127">
   <si>
     <t>Category</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>As a gamer, I want to be susceptible to damage so that I can lose a life when I am hit by an enemy's bullet</t>
+  </si>
+  <si>
+    <t>As an Asteroid, I want to appear during a wave and bounce around the screen so that it is harder for a player to predict my movement</t>
   </si>
 </sst>
 </file>
@@ -1822,6 +1825,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1847,18 +1869,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1927,8 +1937,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1945,17 +1976,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1963,34 +1988,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2331,7 +2334,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="131" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="37" t="s">
@@ -2342,7 +2345,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="122"/>
+      <c r="A3" s="131"/>
       <c r="B3" s="37" t="s">
         <v>50</v>
       </c>
@@ -2351,7 +2354,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="122"/>
+      <c r="A4" s="131"/>
       <c r="B4" s="37" t="s">
         <v>57</v>
       </c>
@@ -2360,7 +2363,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="123"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="37" t="s">
         <v>38</v>
       </c>
@@ -2423,7 +2426,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="133" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -2434,7 +2437,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="125"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="54" t="s">
         <v>43</v>
       </c>
@@ -2443,7 +2446,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="126" t="s">
+      <c r="A14" s="135" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="38" t="s">
@@ -2454,7 +2457,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="122"/>
+      <c r="A15" s="131"/>
       <c r="B15" s="52" t="s">
         <v>47</v>
       </c>
@@ -2463,7 +2466,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="127"/>
+      <c r="A16" s="136"/>
       <c r="B16" s="54" t="s">
         <v>48</v>
       </c>
@@ -2472,7 +2475,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="135" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="38" t="s">
@@ -2483,7 +2486,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="122"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="52" t="s">
         <v>52</v>
       </c>
@@ -2492,7 +2495,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="127"/>
+      <c r="A19" s="136"/>
       <c r="B19" s="54" t="s">
         <v>54</v>
       </c>
@@ -2501,17 +2504,17 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="121"/>
-      <c r="B21" s="121"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="130"/>
       <c r="C21" s="47"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="121"/>
-      <c r="B22" s="121"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="130"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="120"/>
-      <c r="B23" s="120"/>
+      <c r="A23" s="129"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="48"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2519,8 +2522,8 @@
       <c r="C24" s="48"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="120"/>
-      <c r="B25" s="120"/>
+      <c r="A25" s="129"/>
+      <c r="B25" s="129"/>
       <c r="C25" s="48"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2528,9 +2531,9 @@
       <c r="C26" s="48"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="119"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="120"/>
+      <c r="A27" s="128"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
@@ -2572,13 +2575,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" s="30" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:5" s="34" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -2706,16 +2709,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
       <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2755,10 +2758,10 @@
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="147" t="s">
+      <c r="A4" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="154" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="59">
@@ -2778,8 +2781,8 @@
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="148"/>
-      <c r="B5" s="150"/>
+      <c r="A5" s="153"/>
+      <c r="B5" s="155"/>
       <c r="C5" s="78">
         <v>2</v>
       </c>
@@ -2797,10 +2800,10 @@
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="143" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="59">
@@ -2820,8 +2823,8 @@
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="137"/>
-      <c r="B7" s="139"/>
+      <c r="A7" s="142"/>
+      <c r="B7" s="144"/>
       <c r="C7" s="78">
         <v>4</v>
       </c>
@@ -2838,10 +2841,10 @@
       <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="156" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="59">
@@ -2860,8 +2863,8 @@
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="137"/>
-      <c r="B9" s="152"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="157"/>
       <c r="C9" s="78">
         <v>6</v>
       </c>
@@ -2878,10 +2881,10 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="146" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="59">
@@ -2901,8 +2904,8 @@
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="140"/>
-      <c r="B11" s="142"/>
+      <c r="A11" s="145"/>
+      <c r="B11" s="147"/>
       <c r="C11" s="78">
         <v>8</v>
       </c>
@@ -2919,10 +2922,10 @@
       <c r="H11" s="107"/>
     </row>
     <row r="12" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="153" t="s">
+      <c r="A12" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="160" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="59">
@@ -2943,8 +2946,8 @@
       <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="131"/>
-      <c r="B13" s="129"/>
+      <c r="A13" s="159"/>
+      <c r="B13" s="161"/>
       <c r="C13" s="78">
         <v>10</v>
       </c>
@@ -2963,10 +2966,10 @@
       <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="128" t="s">
+      <c r="B14" s="163" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="59">
@@ -2987,8 +2990,8 @@
       <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="131"/>
-      <c r="B15" s="129"/>
+      <c r="A15" s="159"/>
+      <c r="B15" s="161"/>
       <c r="C15" s="78">
         <v>12</v>
       </c>
@@ -3007,10 +3010,10 @@
       <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="163" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="59">
@@ -3029,8 +3032,8 @@
       <c r="H16" s="107"/>
     </row>
     <row r="17" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="131"/>
-      <c r="B17" s="129"/>
+      <c r="A17" s="159"/>
+      <c r="B17" s="161"/>
       <c r="C17" s="78">
         <v>14</v>
       </c>
@@ -3049,10 +3052,10 @@
       <c r="H17" s="107"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="128" t="s">
+      <c r="B18" s="163" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="59">
@@ -3071,8 +3074,8 @@
       <c r="H18" s="107"/>
     </row>
     <row r="19" spans="1:8" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="131"/>
-      <c r="B19" s="129"/>
+      <c r="A19" s="159"/>
+      <c r="B19" s="161"/>
       <c r="C19" s="78">
         <v>16</v>
       </c>
@@ -3089,10 +3092,10 @@
       <c r="H19" s="107"/>
     </row>
     <row r="20" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="128" t="s">
+      <c r="B20" s="163" t="s">
         <v>78</v>
       </c>
       <c r="C20" s="59">
@@ -3113,8 +3116,8 @@
       <c r="H20" s="107"/>
     </row>
     <row r="21" spans="1:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="131"/>
-      <c r="B21" s="129"/>
+      <c r="A21" s="159"/>
+      <c r="B21" s="161"/>
       <c r="C21" s="78">
         <v>18</v>
       </c>
@@ -3133,10 +3136,10 @@
       <c r="H21" s="107"/>
     </row>
     <row r="22" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="130" t="s">
+      <c r="A22" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="128" t="s">
+      <c r="B22" s="163" t="s">
         <v>83</v>
       </c>
       <c r="C22" s="59">
@@ -3157,8 +3160,8 @@
       <c r="H22" s="107"/>
     </row>
     <row r="23" spans="1:8" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="131"/>
-      <c r="B23" s="129"/>
+      <c r="A23" s="159"/>
+      <c r="B23" s="161"/>
       <c r="C23" s="59">
         <v>20</v>
       </c>
@@ -3177,10 +3180,10 @@
       <c r="H23" s="107"/>
     </row>
     <row r="24" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="143" t="s">
+      <c r="A24" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="145" t="s">
+      <c r="B24" s="150" t="s">
         <v>81</v>
       </c>
       <c r="C24" s="59">
@@ -3201,8 +3204,8 @@
       <c r="H24" s="107"/>
     </row>
     <row r="25" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="144"/>
-      <c r="B25" s="146"/>
+      <c r="A25" s="149"/>
+      <c r="B25" s="151"/>
       <c r="C25" s="59">
         <v>22</v>
       </c>
@@ -3221,27 +3224,36 @@
       <c r="H25" s="107"/>
     </row>
     <row r="26" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="132"/>
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="133"/>
+      <c r="A26" s="137"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="138"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="23"/>
       <c r="H26" s="22"/>
     </row>
     <row r="27" spans="1:8" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="134"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
+      <c r="A27" s="139"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
       <c r="H27" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A1:H1"/>
@@ -3258,15 +3270,6 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3317,7 +3320,7 @@
       </c>
     </row>
     <row r="3" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="155">
+      <c r="A3" s="167">
         <v>1</v>
       </c>
       <c r="B3" s="105" t="s">
@@ -4357,7 +4360,7 @@
       <c r="AML3" s="57"/>
     </row>
     <row r="4" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="156"/>
+      <c r="A4" s="168"/>
       <c r="B4" s="92" t="s">
         <v>87</v>
       </c>
@@ -5395,7 +5398,7 @@
       <c r="AML4" s="57"/>
     </row>
     <row r="5" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="155">
+      <c r="A5" s="167">
         <v>2</v>
       </c>
       <c r="B5" s="105" t="s">
@@ -5416,7 +5419,7 @@
       <c r="G5" s="91"/>
     </row>
     <row r="6" spans="1:1026" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="156"/>
+      <c r="A6" s="168"/>
       <c r="B6" s="92" t="s">
         <v>91</v>
       </c>
@@ -5435,7 +5438,7 @@
       <c r="G6" s="93"/>
     </row>
     <row r="7" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="159">
+      <c r="A7" s="171">
         <v>3</v>
       </c>
       <c r="B7" s="94" t="s">
@@ -5456,7 +5459,7 @@
       <c r="G7" s="93"/>
     </row>
     <row r="8" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="159"/>
+      <c r="A8" s="171"/>
       <c r="B8" s="96" t="s">
         <v>27</v>
       </c>
@@ -5475,7 +5478,7 @@
       <c r="G8" s="97"/>
     </row>
     <row r="9" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="159"/>
+      <c r="A9" s="171"/>
       <c r="B9" s="96" t="s">
         <v>28</v>
       </c>
@@ -5494,7 +5497,7 @@
       <c r="G9" s="97"/>
     </row>
     <row r="10" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="159"/>
+      <c r="A10" s="171"/>
       <c r="B10" s="96" t="s">
         <v>29</v>
       </c>
@@ -5513,7 +5516,7 @@
       <c r="G10" s="97"/>
     </row>
     <row r="11" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="159"/>
+      <c r="A11" s="171"/>
       <c r="B11" s="98" t="s">
         <v>88</v>
       </c>
@@ -5532,7 +5535,7 @@
       <c r="G11" s="99"/>
     </row>
     <row r="12" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="159">
+      <c r="A12" s="171">
         <v>4</v>
       </c>
       <c r="B12" s="94" t="s">
@@ -5553,7 +5556,7 @@
       <c r="G12" s="100"/>
     </row>
     <row r="13" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="159"/>
+      <c r="A13" s="171"/>
       <c r="B13" s="96" t="s">
         <v>31</v>
       </c>
@@ -5572,7 +5575,7 @@
       <c r="G13" s="101"/>
     </row>
     <row r="14" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="159"/>
+      <c r="A14" s="171"/>
       <c r="B14" s="96" t="s">
         <v>32</v>
       </c>
@@ -5591,7 +5594,7 @@
       <c r="G14" s="101"/>
     </row>
     <row r="15" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="159"/>
+      <c r="A15" s="171"/>
       <c r="B15" s="96" t="s">
         <v>33</v>
       </c>
@@ -5610,7 +5613,7 @@
       <c r="G15" s="101"/>
     </row>
     <row r="16" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="159"/>
+      <c r="A16" s="171"/>
       <c r="B16" s="98" t="s">
         <v>34</v>
       </c>
@@ -5629,7 +5632,7 @@
       <c r="G16" s="99"/>
     </row>
     <row r="17" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="155">
+      <c r="A17" s="167">
         <v>5</v>
       </c>
       <c r="B17" s="108" t="s">
@@ -6669,7 +6672,7 @@
       <c r="AML17" s="57"/>
     </row>
     <row r="18" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="156"/>
+      <c r="A18" s="168"/>
       <c r="B18" s="108" t="s">
         <v>92</v>
       </c>
@@ -7707,7 +7710,7 @@
       <c r="AML18" s="57"/>
     </row>
     <row r="19" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="159">
+      <c r="A19" s="171">
         <v>7</v>
       </c>
       <c r="B19" s="94" t="s">
@@ -8747,7 +8750,7 @@
       <c r="AML19" s="46"/>
     </row>
     <row r="20" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="159"/>
+      <c r="A20" s="171"/>
       <c r="B20" s="96" t="s">
         <v>95</v>
       </c>
@@ -9785,7 +9788,7 @@
       <c r="AML20" s="46"/>
     </row>
     <row r="21" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="159"/>
+      <c r="A21" s="171"/>
       <c r="B21" s="98" t="s">
         <v>94</v>
       </c>
@@ -10823,7 +10826,7 @@
       <c r="AML21" s="46"/>
     </row>
     <row r="22" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157">
+      <c r="A22" s="169">
         <v>13</v>
       </c>
       <c r="B22" s="110" t="s">
@@ -11863,7 +11866,7 @@
       <c r="AML22" s="57"/>
     </row>
     <row r="23" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="158"/>
+      <c r="A23" s="170"/>
       <c r="B23" s="110" t="s">
         <v>98</v>
       </c>
@@ -12901,7 +12904,7 @@
       <c r="AML23" s="57"/>
     </row>
     <row r="24" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="160">
+      <c r="A24" s="164">
         <v>15</v>
       </c>
       <c r="B24" s="102" t="s">
@@ -13941,7 +13944,7 @@
       <c r="AML24" s="46"/>
     </row>
     <row r="25" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="161"/>
+      <c r="A25" s="165"/>
       <c r="B25" s="103" t="s">
         <v>100</v>
       </c>
@@ -14979,7 +14982,7 @@
       <c r="AML25" s="46"/>
     </row>
     <row r="26" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="161"/>
+      <c r="A26" s="165"/>
       <c r="B26" s="103" t="s">
         <v>101</v>
       </c>
@@ -16017,7 +16020,7 @@
       <c r="AML26" s="46"/>
     </row>
     <row r="27" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="162"/>
+      <c r="A27" s="166"/>
       <c r="B27" s="113" t="s">
         <v>102</v>
       </c>
@@ -24288,8 +24291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24305,16 +24308,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="140" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
       <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -24354,10 +24357,10 @@
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="160" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="59">
@@ -24369,16 +24372,16 @@
       <c r="E4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="84" t="s">
-        <v>16</v>
+      <c r="F4" s="86" t="s">
+        <v>13</v>
       </c>
       <c r="G4" s="88"/>
       <c r="H4" s="19"/>
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="131"/>
-      <c r="B5" s="129"/>
+      <c r="A5" s="159"/>
+      <c r="B5" s="161"/>
       <c r="C5" s="78">
         <v>2</v>
       </c>
@@ -24388,18 +24391,18 @@
       <c r="E5" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="85" t="s">
-        <v>16</v>
+      <c r="F5" s="86" t="s">
+        <v>13</v>
       </c>
       <c r="G5" s="87"/>
       <c r="H5" s="19"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="163" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="59">
@@ -24421,8 +24424,8 @@
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="131"/>
-      <c r="B7" s="129"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="161"/>
       <c r="C7" s="78">
         <v>4</v>
       </c>
@@ -24441,10 +24444,10 @@
       <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="174" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="59">
@@ -24463,8 +24466,8 @@
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="131"/>
-      <c r="B9" s="165"/>
+      <c r="A9" s="159"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="78">
         <v>6</v>
       </c>
@@ -24481,10 +24484,10 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="163" t="s">
         <v>78</v>
       </c>
       <c r="C10" s="59">
@@ -24503,8 +24506,8 @@
       <c r="H10" s="107"/>
     </row>
     <row r="11" spans="1:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="131"/>
-      <c r="B11" s="129"/>
+      <c r="A11" s="159"/>
+      <c r="B11" s="161"/>
       <c r="C11" s="78">
         <v>8</v>
       </c>
@@ -24521,10 +24524,10 @@
       <c r="H11" s="107"/>
     </row>
     <row r="12" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="163" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="59">
@@ -24545,8 +24548,8 @@
       <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="131"/>
-      <c r="B13" s="129"/>
+      <c r="A13" s="159"/>
+      <c r="B13" s="161"/>
       <c r="C13" s="78">
         <v>10</v>
       </c>
@@ -24565,11 +24568,11 @@
       <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="145" t="s">
-        <v>81</v>
+      <c r="B14" s="150" t="s">
+        <v>126</v>
       </c>
       <c r="C14" s="59">
         <v>11</v>
@@ -24589,8 +24592,8 @@
       <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="173"/>
-      <c r="B15" s="166"/>
+      <c r="A15" s="172"/>
+      <c r="B15" s="173"/>
       <c r="C15" s="78">
         <v>12</v>
       </c>
@@ -24609,92 +24612,92 @@
       <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="133"/>
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="170"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
     </row>
     <row r="17" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="134"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="170"/>
+      <c r="A17" s="139"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
     </row>
     <row r="18" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="50"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
       <c r="G18" s="50"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="170"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="122"/>
     </row>
     <row r="19" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
-      <c r="B19" s="171"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
       <c r="G19" s="50"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="170"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="122"/>
     </row>
     <row r="20" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="50"/>
-      <c r="B20" s="171"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
       <c r="G20" s="50"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="170"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="122"/>
     </row>
     <row r="21" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="50"/>
-      <c r="B21" s="171"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
       <c r="G21" s="50"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="170"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="122"/>
     </row>
     <row r="22" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="50"/>
-      <c r="B22" s="171"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="170"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="122"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="50"/>
-      <c r="B23" s="171"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
       <c r="G23" s="50"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="170"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="122"/>
     </row>
     <row r="24" spans="1:9" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
@@ -24718,12 +24721,7 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A10:A11"/>
@@ -24732,7 +24730,12 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -24743,8 +24746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24759,7 +24762,7 @@
     <col min="8" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>18</v>
       </c>
@@ -24783,7 +24786,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="155">
+      <c r="A2" s="167">
         <v>1</v>
       </c>
       <c r="B2" s="108" t="s">
@@ -24804,7 +24807,7 @@
       <c r="G2" s="91"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="174"/>
+      <c r="A3" s="176"/>
       <c r="B3" s="94" t="s">
         <v>106</v>
       </c>
@@ -24823,7 +24826,7 @@
       <c r="G3" s="91"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="174"/>
+      <c r="A4" s="176"/>
       <c r="B4" s="105" t="s">
         <v>107</v>
       </c>
@@ -24842,8 +24845,8 @@
       <c r="G4" s="91"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="174"/>
-      <c r="B5" s="175" t="s">
+      <c r="A5" s="176"/>
+      <c r="B5" s="125" t="s">
         <v>108</v>
       </c>
       <c r="C5" s="111" t="s">
@@ -24861,8 +24864,8 @@
       <c r="G5" s="91"/>
     </row>
     <row r="6" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="156"/>
-      <c r="B6" s="176" t="s">
+      <c r="A6" s="168"/>
+      <c r="B6" s="126" t="s">
         <v>109</v>
       </c>
       <c r="C6" s="111" t="s">
@@ -24880,10 +24883,10 @@
       <c r="G6" s="93"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="155">
+      <c r="A7" s="167">
         <v>2</v>
       </c>
-      <c r="B7" s="177" t="s">
+      <c r="B7" s="127" t="s">
         <v>96</v>
       </c>
       <c r="C7" s="111" t="s">
@@ -24901,7 +24904,7 @@
       <c r="G7" s="91"/>
     </row>
     <row r="8" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="174"/>
+      <c r="A8" s="176"/>
       <c r="B8" s="92" t="s">
         <v>106</v>
       </c>
@@ -24920,7 +24923,7 @@
       <c r="G8" s="91"/>
     </row>
     <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="174"/>
+      <c r="A9" s="176"/>
       <c r="B9" s="105" t="s">
         <v>107</v>
       </c>
@@ -24939,8 +24942,8 @@
       <c r="G9" s="91"/>
     </row>
     <row r="10" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="174"/>
-      <c r="B10" s="175" t="s">
+      <c r="A10" s="176"/>
+      <c r="B10" s="125" t="s">
         <v>110</v>
       </c>
       <c r="C10" s="111" t="s">
@@ -24958,8 +24961,8 @@
       <c r="G10" s="91"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="156"/>
-      <c r="B11" s="175" t="s">
+      <c r="A11" s="168"/>
+      <c r="B11" s="125" t="s">
         <v>123</v>
       </c>
       <c r="C11" s="111" t="s">
@@ -24977,7 +24980,7 @@
       <c r="G11" s="93"/>
     </row>
     <row r="12" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="159">
+      <c r="A12" s="171">
         <v>5</v>
       </c>
       <c r="B12" s="94" t="s">
@@ -24998,7 +25001,7 @@
       <c r="G12" s="93"/>
     </row>
     <row r="13" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="159"/>
+      <c r="A13" s="171"/>
       <c r="B13" s="96" t="s">
         <v>112</v>
       </c>
@@ -25017,7 +25020,7 @@
       <c r="G13" s="97"/>
     </row>
     <row r="14" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="159"/>
+      <c r="A14" s="171"/>
       <c r="B14" s="96" t="s">
         <v>113</v>
       </c>
@@ -25036,7 +25039,7 @@
       <c r="G14" s="97"/>
     </row>
     <row r="15" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="159">
+      <c r="A15" s="171">
         <v>6</v>
       </c>
       <c r="B15" s="94" t="s">
@@ -25057,7 +25060,7 @@
       <c r="G15" s="100"/>
     </row>
     <row r="16" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="159"/>
+      <c r="A16" s="171"/>
       <c r="B16" s="96" t="s">
         <v>112</v>
       </c>
@@ -25076,7 +25079,7 @@
       <c r="G16" s="101"/>
     </row>
     <row r="17" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="159"/>
+      <c r="A17" s="171"/>
       <c r="B17" s="96" t="s">
         <v>113</v>
       </c>
@@ -25095,7 +25098,7 @@
       <c r="G17" s="101"/>
     </row>
     <row r="18" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="159"/>
+      <c r="A18" s="171"/>
       <c r="B18" s="96" t="s">
         <v>115</v>
       </c>
@@ -25114,7 +25117,7 @@
       <c r="G18" s="101"/>
     </row>
     <row r="19" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="155">
+      <c r="A19" s="167">
         <v>7</v>
       </c>
       <c r="B19" s="108" t="s">
@@ -25135,7 +25138,7 @@
       <c r="G19" s="109"/>
     </row>
     <row r="20" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="174"/>
+      <c r="A20" s="176"/>
       <c r="B20" s="108" t="s">
         <v>119</v>
       </c>
@@ -25154,7 +25157,7 @@
       <c r="G20" s="109"/>
     </row>
     <row r="21" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="156"/>
+      <c r="A21" s="168"/>
       <c r="B21" s="108" t="s">
         <v>118</v>
       </c>
@@ -25173,7 +25176,7 @@
       <c r="G21" s="109"/>
     </row>
     <row r="22" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="159">
+      <c r="A22" s="171">
         <v>8</v>
       </c>
       <c r="B22" s="94" t="s">
@@ -25194,7 +25197,7 @@
       <c r="G22" s="93"/>
     </row>
     <row r="23" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="159"/>
+      <c r="A23" s="171"/>
       <c r="B23" s="96" t="s">
         <v>121</v>
       </c>
@@ -25213,7 +25216,7 @@
       <c r="G23" s="101"/>
     </row>
     <row r="24" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="159"/>
+      <c r="A24" s="171"/>
       <c r="B24" s="98" t="s">
         <v>122</v>
       </c>
@@ -25233,12 +25236,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/EveristusA_ProductSprintBacklog.xlsx
+++ b/EveristusA_ProductSprintBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Everistus\Documents\_OnlineClasses\OOSW\TermProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62A4837-1416-4B97-AC60-555C2ECBCD14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23956FD-3EA2-4631-89B4-DC44185EAFEF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="719" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="719" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proposed Product Backlog" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="Sprint1 Acceptance" sheetId="3" r:id="rId3"/>
     <sheet name="Sprint2" sheetId="4" r:id="rId4"/>
     <sheet name="Sprint2 Acceptance" sheetId="5" r:id="rId5"/>
-    <sheet name="Sprint3" sheetId="7" r:id="rId6"/>
-    <sheet name="Sprint3 Acceptance" sheetId="8" r:id="rId7"/>
+    <sheet name="Sprint3" sheetId="12" r:id="rId6"/>
+    <sheet name="Sprint3 Acceptance" sheetId="14" r:id="rId7"/>
     <sheet name="Sprint4" sheetId="9" r:id="rId8"/>
-    <sheet name="Sprint4 Acceptance" sheetId="10" r:id="rId9"/>
+    <sheet name="Sprint4 Acceptance" sheetId="13" r:id="rId9"/>
     <sheet name="Finalized Product Backlog" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="147">
   <si>
     <t>Category</t>
   </si>
@@ -447,6 +447,66 @@
   <si>
     <t>As an Asteroid, I want to appear during a wave and bounce around the screen so that it is harder for a player to predict my movement</t>
   </si>
+  <si>
+    <t>forwarded to Sprint 4</t>
+  </si>
+  <si>
+    <t>The health powerup should spawn at random intervals</t>
+  </si>
+  <si>
+    <t>The health powerup should be a cyan color</t>
+  </si>
+  <si>
+    <t>The health powerup should be add a life to the player</t>
+  </si>
+  <si>
+    <t>The players life counter should increase after receiving the powerup</t>
+  </si>
+  <si>
+    <t>As a gamer, I want to collect the shield so that I can protect my self from the enemies</t>
+  </si>
+  <si>
+    <t>The shield powerup should spawn at random intervals</t>
+  </si>
+  <si>
+    <t>The shield powerup should be yellow in color</t>
+  </si>
+  <si>
+    <t>The shield powerup should make the player invincible for a few seconds</t>
+  </si>
+  <si>
+    <t>The shield's invincibility boost should wear off after a few seconds</t>
+  </si>
+  <si>
+    <t>The player's ship should turn yellow when invincibility is on</t>
+  </si>
+  <si>
+    <t>The player's ship should turn cyan when invincibility is off</t>
+  </si>
+  <si>
+    <t>Asteroids should spawn on the second wave</t>
+  </si>
+  <si>
+    <t>Asteroids should have an entry animation</t>
+  </si>
+  <si>
+    <t>Asteroids should kill the player on collision</t>
+  </si>
+  <si>
+    <t>Asteroids should be susceptible to damage from player's bullets</t>
+  </si>
+  <si>
+    <t>At the left edge of the screen the asteroid should not move beyond the bounds of the screen</t>
+  </si>
+  <si>
+    <t>At the right edge of the screen the asteroid should not move beyond the bounds of the screen</t>
+  </si>
+  <si>
+    <t>Asteroids should be animated while moving back and forth</t>
+  </si>
+  <si>
+    <t>The health powerup should collide with the player</t>
+  </si>
 </sst>
 </file>
 
@@ -597,7 +657,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="79">
+  <borders count="89">
     <border>
       <left/>
       <right/>
@@ -1571,11 +1631,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1844,6 +2036,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1869,6 +2067,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1937,19 +2147,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1976,16 +2174,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1994,6 +2192,37 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2334,7 +2563,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="133" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="37" t="s">
@@ -2345,7 +2574,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="131"/>
+      <c r="A3" s="133"/>
       <c r="B3" s="37" t="s">
         <v>50</v>
       </c>
@@ -2354,7 +2583,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="131"/>
+      <c r="A4" s="133"/>
       <c r="B4" s="37" t="s">
         <v>57</v>
       </c>
@@ -2363,7 +2592,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="132"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="37" t="s">
         <v>38</v>
       </c>
@@ -2426,7 +2655,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="135" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -2437,7 +2666,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="134"/>
+      <c r="A13" s="136"/>
       <c r="B13" s="54" t="s">
         <v>43</v>
       </c>
@@ -2446,7 +2675,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="137" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="38" t="s">
@@ -2457,7 +2686,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="131"/>
+      <c r="A15" s="133"/>
       <c r="B15" s="52" t="s">
         <v>47</v>
       </c>
@@ -2466,7 +2695,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="136"/>
+      <c r="A16" s="138"/>
       <c r="B16" s="54" t="s">
         <v>48</v>
       </c>
@@ -2475,7 +2704,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="135" t="s">
+      <c r="A17" s="137" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="38" t="s">
@@ -2486,7 +2715,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="131"/>
+      <c r="A18" s="133"/>
       <c r="B18" s="52" t="s">
         <v>52</v>
       </c>
@@ -2495,7 +2724,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="136"/>
+      <c r="A19" s="138"/>
       <c r="B19" s="54" t="s">
         <v>54</v>
       </c>
@@ -2504,17 +2733,17 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="130"/>
-      <c r="B21" s="130"/>
+      <c r="A21" s="132"/>
+      <c r="B21" s="132"/>
       <c r="C21" s="47"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="130"/>
-      <c r="B22" s="130"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="132"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="129"/>
-      <c r="B23" s="129"/>
+      <c r="A23" s="131"/>
+      <c r="B23" s="131"/>
       <c r="C23" s="48"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2522,8 +2751,8 @@
       <c r="C24" s="48"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="129"/>
-      <c r="B25" s="129"/>
+      <c r="A25" s="131"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="48"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2531,9 +2760,9 @@
       <c r="C26" s="48"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="128"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
+      <c r="A27" s="130"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
@@ -2575,13 +2804,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" s="30" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:5" s="34" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -2692,8 +2921,8 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2709,16 +2938,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
       <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2758,10 +2987,10 @@
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="160" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="59">
@@ -2781,8 +3010,8 @@
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
-      <c r="B5" s="155"/>
+      <c r="A5" s="159"/>
+      <c r="B5" s="161"/>
       <c r="C5" s="78">
         <v>2</v>
       </c>
@@ -2800,10 +3029,10 @@
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="59">
@@ -2823,8 +3052,8 @@
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="142"/>
-      <c r="B7" s="144"/>
+      <c r="A7" s="148"/>
+      <c r="B7" s="150"/>
       <c r="C7" s="78">
         <v>4</v>
       </c>
@@ -2841,10 +3070,10 @@
       <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="141" t="s">
+      <c r="A8" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="162" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="59">
@@ -2863,8 +3092,8 @@
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="142"/>
-      <c r="B9" s="157"/>
+      <c r="A9" s="148"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="78">
         <v>6</v>
       </c>
@@ -2881,10 +3110,10 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="146" t="s">
+      <c r="B10" s="152" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="59">
@@ -2904,8 +3133,8 @@
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="145"/>
-      <c r="B11" s="147"/>
+      <c r="A11" s="151"/>
+      <c r="B11" s="153"/>
       <c r="C11" s="78">
         <v>8</v>
       </c>
@@ -2922,10 +3151,10 @@
       <c r="H11" s="107"/>
     </row>
     <row r="12" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="160" t="s">
+      <c r="B12" s="165" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="59">
@@ -2946,8 +3175,8 @@
       <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="159"/>
-      <c r="B13" s="161"/>
+      <c r="A13" s="142"/>
+      <c r="B13" s="140"/>
       <c r="C13" s="78">
         <v>10</v>
       </c>
@@ -2966,10 +3195,10 @@
       <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="162" t="s">
+      <c r="A14" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="163" t="s">
+      <c r="B14" s="139" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="59">
@@ -2990,8 +3219,8 @@
       <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="159"/>
-      <c r="B15" s="161"/>
+      <c r="A15" s="142"/>
+      <c r="B15" s="140"/>
       <c r="C15" s="78">
         <v>12</v>
       </c>
@@ -3010,10 +3239,10 @@
       <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="162" t="s">
+      <c r="A16" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="163" t="s">
+      <c r="B16" s="139" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="59">
@@ -3032,8 +3261,8 @@
       <c r="H16" s="107"/>
     </row>
     <row r="17" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="159"/>
-      <c r="B17" s="161"/>
+      <c r="A17" s="142"/>
+      <c r="B17" s="140"/>
       <c r="C17" s="78">
         <v>14</v>
       </c>
@@ -3052,10 +3281,10 @@
       <c r="H17" s="107"/>
     </row>
     <row r="18" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="162" t="s">
+      <c r="A18" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="163" t="s">
+      <c r="B18" s="139" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="59">
@@ -3074,8 +3303,8 @@
       <c r="H18" s="107"/>
     </row>
     <row r="19" spans="1:8" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="159"/>
-      <c r="B19" s="161"/>
+      <c r="A19" s="142"/>
+      <c r="B19" s="140"/>
       <c r="C19" s="78">
         <v>16</v>
       </c>
@@ -3092,10 +3321,10 @@
       <c r="H19" s="107"/>
     </row>
     <row r="20" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="162" t="s">
+      <c r="A20" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="163" t="s">
+      <c r="B20" s="139" t="s">
         <v>78</v>
       </c>
       <c r="C20" s="59">
@@ -3116,8 +3345,8 @@
       <c r="H20" s="107"/>
     </row>
     <row r="21" spans="1:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="159"/>
-      <c r="B21" s="161"/>
+      <c r="A21" s="142"/>
+      <c r="B21" s="140"/>
       <c r="C21" s="78">
         <v>18</v>
       </c>
@@ -3136,10 +3365,10 @@
       <c r="H21" s="107"/>
     </row>
     <row r="22" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="162" t="s">
+      <c r="A22" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="163" t="s">
+      <c r="B22" s="139" t="s">
         <v>83</v>
       </c>
       <c r="C22" s="59">
@@ -3160,8 +3389,8 @@
       <c r="H22" s="107"/>
     </row>
     <row r="23" spans="1:8" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="159"/>
-      <c r="B23" s="161"/>
+      <c r="A23" s="142"/>
+      <c r="B23" s="140"/>
       <c r="C23" s="59">
         <v>20</v>
       </c>
@@ -3180,10 +3409,10 @@
       <c r="H23" s="107"/>
     </row>
     <row r="24" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="148" t="s">
+      <c r="A24" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="150" t="s">
+      <c r="B24" s="156" t="s">
         <v>81</v>
       </c>
       <c r="C24" s="59">
@@ -3204,8 +3433,8 @@
       <c r="H24" s="107"/>
     </row>
     <row r="25" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="149"/>
-      <c r="B25" s="151"/>
+      <c r="A25" s="155"/>
+      <c r="B25" s="157"/>
       <c r="C25" s="59">
         <v>22</v>
       </c>
@@ -3224,36 +3453,27 @@
       <c r="H25" s="107"/>
     </row>
     <row r="26" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="137"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="138"/>
+      <c r="A26" s="143"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="23"/>
       <c r="H26" s="22"/>
     </row>
     <row r="27" spans="1:8" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="139"/>
-      <c r="B27" s="139"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
+      <c r="A27" s="145"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
       <c r="H27" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A1:H1"/>
@@ -3270,6 +3490,15 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3281,7 +3510,7 @@
   <dimension ref="A1:AML36"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G27"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3320,7 +3549,7 @@
       </c>
     </row>
     <row r="3" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="167">
+      <c r="A3" s="169">
         <v>1</v>
       </c>
       <c r="B3" s="105" t="s">
@@ -4360,7 +4589,7 @@
       <c r="AML3" s="57"/>
     </row>
     <row r="4" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="168"/>
+      <c r="A4" s="170"/>
       <c r="B4" s="92" t="s">
         <v>87</v>
       </c>
@@ -5398,7 +5627,7 @@
       <c r="AML4" s="57"/>
     </row>
     <row r="5" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="167">
+      <c r="A5" s="169">
         <v>2</v>
       </c>
       <c r="B5" s="105" t="s">
@@ -5419,7 +5648,7 @@
       <c r="G5" s="91"/>
     </row>
     <row r="6" spans="1:1026" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="168"/>
+      <c r="A6" s="170"/>
       <c r="B6" s="92" t="s">
         <v>91</v>
       </c>
@@ -5438,7 +5667,7 @@
       <c r="G6" s="93"/>
     </row>
     <row r="7" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="171">
+      <c r="A7" s="173">
         <v>3</v>
       </c>
       <c r="B7" s="94" t="s">
@@ -5459,7 +5688,7 @@
       <c r="G7" s="93"/>
     </row>
     <row r="8" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="171"/>
+      <c r="A8" s="173"/>
       <c r="B8" s="96" t="s">
         <v>27</v>
       </c>
@@ -5478,7 +5707,7 @@
       <c r="G8" s="97"/>
     </row>
     <row r="9" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="171"/>
+      <c r="A9" s="173"/>
       <c r="B9" s="96" t="s">
         <v>28</v>
       </c>
@@ -5497,7 +5726,7 @@
       <c r="G9" s="97"/>
     </row>
     <row r="10" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="171"/>
+      <c r="A10" s="173"/>
       <c r="B10" s="96" t="s">
         <v>29</v>
       </c>
@@ -5516,7 +5745,7 @@
       <c r="G10" s="97"/>
     </row>
     <row r="11" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="171"/>
+      <c r="A11" s="173"/>
       <c r="B11" s="98" t="s">
         <v>88</v>
       </c>
@@ -5535,7 +5764,7 @@
       <c r="G11" s="99"/>
     </row>
     <row r="12" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="171">
+      <c r="A12" s="173">
         <v>4</v>
       </c>
       <c r="B12" s="94" t="s">
@@ -5556,7 +5785,7 @@
       <c r="G12" s="100"/>
     </row>
     <row r="13" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="171"/>
+      <c r="A13" s="173"/>
       <c r="B13" s="96" t="s">
         <v>31</v>
       </c>
@@ -5575,7 +5804,7 @@
       <c r="G13" s="101"/>
     </row>
     <row r="14" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="171"/>
+      <c r="A14" s="173"/>
       <c r="B14" s="96" t="s">
         <v>32</v>
       </c>
@@ -5594,7 +5823,7 @@
       <c r="G14" s="101"/>
     </row>
     <row r="15" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="171"/>
+      <c r="A15" s="173"/>
       <c r="B15" s="96" t="s">
         <v>33</v>
       </c>
@@ -5613,7 +5842,7 @@
       <c r="G15" s="101"/>
     </row>
     <row r="16" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="171"/>
+      <c r="A16" s="173"/>
       <c r="B16" s="98" t="s">
         <v>34</v>
       </c>
@@ -5632,7 +5861,7 @@
       <c r="G16" s="99"/>
     </row>
     <row r="17" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="167">
+      <c r="A17" s="169">
         <v>5</v>
       </c>
       <c r="B17" s="108" t="s">
@@ -6672,7 +6901,7 @@
       <c r="AML17" s="57"/>
     </row>
     <row r="18" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="168"/>
+      <c r="A18" s="170"/>
       <c r="B18" s="108" t="s">
         <v>92</v>
       </c>
@@ -7710,7 +7939,7 @@
       <c r="AML18" s="57"/>
     </row>
     <row r="19" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="171">
+      <c r="A19" s="173">
         <v>7</v>
       </c>
       <c r="B19" s="94" t="s">
@@ -8750,7 +8979,7 @@
       <c r="AML19" s="46"/>
     </row>
     <row r="20" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="171"/>
+      <c r="A20" s="173"/>
       <c r="B20" s="96" t="s">
         <v>95</v>
       </c>
@@ -9788,7 +10017,7 @@
       <c r="AML20" s="46"/>
     </row>
     <row r="21" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="171"/>
+      <c r="A21" s="173"/>
       <c r="B21" s="98" t="s">
         <v>94</v>
       </c>
@@ -10826,7 +11055,7 @@
       <c r="AML21" s="46"/>
     </row>
     <row r="22" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="169">
+      <c r="A22" s="171">
         <v>13</v>
       </c>
       <c r="B22" s="110" t="s">
@@ -11866,7 +12095,7 @@
       <c r="AML22" s="57"/>
     </row>
     <row r="23" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="170"/>
+      <c r="A23" s="172"/>
       <c r="B23" s="110" t="s">
         <v>98</v>
       </c>
@@ -12904,7 +13133,7 @@
       <c r="AML23" s="57"/>
     </row>
     <row r="24" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="164">
+      <c r="A24" s="166">
         <v>15</v>
       </c>
       <c r="B24" s="102" t="s">
@@ -13944,7 +14173,7 @@
       <c r="AML24" s="46"/>
     </row>
     <row r="25" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="165"/>
+      <c r="A25" s="167"/>
       <c r="B25" s="103" t="s">
         <v>100</v>
       </c>
@@ -14982,7 +15211,7 @@
       <c r="AML25" s="46"/>
     </row>
     <row r="26" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="165"/>
+      <c r="A26" s="167"/>
       <c r="B26" s="103" t="s">
         <v>101</v>
       </c>
@@ -16020,7 +16249,7 @@
       <c r="AML26" s="46"/>
     </row>
     <row r="27" spans="1:1026" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="166"/>
+      <c r="A27" s="168"/>
       <c r="B27" s="113" t="s">
         <v>102</v>
       </c>
@@ -24291,8 +24520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24308,16 +24537,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="146" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
       <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -24357,10 +24586,10 @@
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="165" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="59">
@@ -24380,8 +24609,8 @@
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="159"/>
-      <c r="B5" s="161"/>
+      <c r="A5" s="142"/>
+      <c r="B5" s="140"/>
       <c r="C5" s="78">
         <v>2</v>
       </c>
@@ -24399,10 +24628,10 @@
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="162" t="s">
+      <c r="A6" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="139" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="59">
@@ -24424,8 +24653,8 @@
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="159"/>
-      <c r="B7" s="161"/>
+      <c r="A7" s="142"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="78">
         <v>4</v>
       </c>
@@ -24444,7 +24673,7 @@
       <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="141" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="174" t="s">
@@ -24466,7 +24695,7 @@
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="159"/>
+      <c r="A9" s="142"/>
       <c r="B9" s="175"/>
       <c r="C9" s="78">
         <v>6</v>
@@ -24484,10 +24713,10 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="163" t="s">
+      <c r="B10" s="139" t="s">
         <v>78</v>
       </c>
       <c r="C10" s="59">
@@ -24506,8 +24735,8 @@
       <c r="H10" s="107"/>
     </row>
     <row r="11" spans="1:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="159"/>
-      <c r="B11" s="161"/>
+      <c r="A11" s="142"/>
+      <c r="B11" s="140"/>
       <c r="C11" s="78">
         <v>8</v>
       </c>
@@ -24524,10 +24753,10 @@
       <c r="H11" s="107"/>
     </row>
     <row r="12" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="162" t="s">
+      <c r="A12" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="163" t="s">
+      <c r="B12" s="139" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="59">
@@ -24548,8 +24777,8 @@
       <c r="H12" s="107"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="159"/>
-      <c r="B13" s="161"/>
+      <c r="A13" s="142"/>
+      <c r="B13" s="140"/>
       <c r="C13" s="78">
         <v>10</v>
       </c>
@@ -24568,10 +24797,10 @@
       <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="148" t="s">
+      <c r="A14" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="156" t="s">
         <v>126</v>
       </c>
       <c r="C14" s="59">
@@ -24592,8 +24821,8 @@
       <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="172"/>
-      <c r="B15" s="173"/>
+      <c r="A15" s="176"/>
+      <c r="B15" s="177"/>
       <c r="C15" s="78">
         <v>12</v>
       </c>
@@ -24612,10 +24841,10 @@
       <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="138"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
+      <c r="A16" s="144"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
       <c r="E16" s="119"/>
       <c r="F16" s="119"/>
       <c r="G16" s="120"/>
@@ -24623,13 +24852,13 @@
       <c r="I16" s="122"/>
     </row>
     <row r="17" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="139"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
+      <c r="A17" s="145"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
       <c r="H17" s="121"/>
       <c r="I17" s="122"/>
     </row>
@@ -24721,6 +24950,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -24730,12 +24965,6 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -24747,7 +24976,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24786,7 +25015,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="167">
+      <c r="A2" s="169">
         <v>1</v>
       </c>
       <c r="B2" s="108" t="s">
@@ -24807,7 +25036,7 @@
       <c r="G2" s="91"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="176"/>
+      <c r="A3" s="178"/>
       <c r="B3" s="94" t="s">
         <v>106</v>
       </c>
@@ -24826,7 +25055,7 @@
       <c r="G3" s="91"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="176"/>
+      <c r="A4" s="178"/>
       <c r="B4" s="105" t="s">
         <v>107</v>
       </c>
@@ -24845,7 +25074,7 @@
       <c r="G4" s="91"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="176"/>
+      <c r="A5" s="178"/>
       <c r="B5" s="125" t="s">
         <v>108</v>
       </c>
@@ -24864,7 +25093,7 @@
       <c r="G5" s="91"/>
     </row>
     <row r="6" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="168"/>
+      <c r="A6" s="170"/>
       <c r="B6" s="126" t="s">
         <v>109</v>
       </c>
@@ -24883,7 +25112,7 @@
       <c r="G6" s="93"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="167">
+      <c r="A7" s="169">
         <v>2</v>
       </c>
       <c r="B7" s="127" t="s">
@@ -24904,7 +25133,7 @@
       <c r="G7" s="91"/>
     </row>
     <row r="8" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="176"/>
+      <c r="A8" s="178"/>
       <c r="B8" s="92" t="s">
         <v>106</v>
       </c>
@@ -24923,7 +25152,7 @@
       <c r="G8" s="91"/>
     </row>
     <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="176"/>
+      <c r="A9" s="178"/>
       <c r="B9" s="105" t="s">
         <v>107</v>
       </c>
@@ -24942,7 +25171,7 @@
       <c r="G9" s="91"/>
     </row>
     <row r="10" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="176"/>
+      <c r="A10" s="178"/>
       <c r="B10" s="125" t="s">
         <v>110</v>
       </c>
@@ -24961,7 +25190,7 @@
       <c r="G10" s="91"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="168"/>
+      <c r="A11" s="170"/>
       <c r="B11" s="125" t="s">
         <v>123</v>
       </c>
@@ -24980,7 +25209,7 @@
       <c r="G11" s="93"/>
     </row>
     <row r="12" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="171">
+      <c r="A12" s="173">
         <v>5</v>
       </c>
       <c r="B12" s="94" t="s">
@@ -25001,7 +25230,7 @@
       <c r="G12" s="93"/>
     </row>
     <row r="13" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="171"/>
+      <c r="A13" s="173"/>
       <c r="B13" s="96" t="s">
         <v>112</v>
       </c>
@@ -25020,7 +25249,7 @@
       <c r="G13" s="97"/>
     </row>
     <row r="14" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="171"/>
+      <c r="A14" s="173"/>
       <c r="B14" s="96" t="s">
         <v>113</v>
       </c>
@@ -25039,7 +25268,7 @@
       <c r="G14" s="97"/>
     </row>
     <row r="15" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="171">
+      <c r="A15" s="173">
         <v>6</v>
       </c>
       <c r="B15" s="94" t="s">
@@ -25060,7 +25289,7 @@
       <c r="G15" s="100"/>
     </row>
     <row r="16" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="171"/>
+      <c r="A16" s="173"/>
       <c r="B16" s="96" t="s">
         <v>112</v>
       </c>
@@ -25079,7 +25308,7 @@
       <c r="G16" s="101"/>
     </row>
     <row r="17" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="171"/>
+      <c r="A17" s="173"/>
       <c r="B17" s="96" t="s">
         <v>113</v>
       </c>
@@ -25098,7 +25327,7 @@
       <c r="G17" s="101"/>
     </row>
     <row r="18" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="171"/>
+      <c r="A18" s="173"/>
       <c r="B18" s="96" t="s">
         <v>115</v>
       </c>
@@ -25117,7 +25346,7 @@
       <c r="G18" s="101"/>
     </row>
     <row r="19" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="167">
+      <c r="A19" s="169">
         <v>7</v>
       </c>
       <c r="B19" s="108" t="s">
@@ -25138,7 +25367,7 @@
       <c r="G19" s="109"/>
     </row>
     <row r="20" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="176"/>
+      <c r="A20" s="178"/>
       <c r="B20" s="108" t="s">
         <v>119</v>
       </c>
@@ -25157,7 +25386,7 @@
       <c r="G20" s="109"/>
     </row>
     <row r="21" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="168"/>
+      <c r="A21" s="170"/>
       <c r="B21" s="108" t="s">
         <v>118</v>
       </c>
@@ -25176,7 +25405,7 @@
       <c r="G21" s="109"/>
     </row>
     <row r="22" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="171">
+      <c r="A22" s="173">
         <v>8</v>
       </c>
       <c r="B22" s="94" t="s">
@@ -25197,7 +25426,7 @@
       <c r="G22" s="93"/>
     </row>
     <row r="23" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="171"/>
+      <c r="A23" s="173"/>
       <c r="B23" s="96" t="s">
         <v>121</v>
       </c>
@@ -25216,7 +25445,7 @@
       <c r="G23" s="101"/>
     </row>
     <row r="24" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="171"/>
+      <c r="A24" s="173"/>
       <c r="B24" s="98" t="s">
         <v>122</v>
       </c>
@@ -25249,26 +25478,978 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC30A8F-8DCB-4C77-B513-8F6AEE6225AD}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB7875C-F43F-4243-A6A2-8B6E0003A7E1}">
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" style="10" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="4" style="12" customWidth="1"/>
+    <col min="4" max="4" width="69" style="13" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="13" customWidth="1"/>
+    <col min="9" max="1025" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="180" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="158" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="160" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="59">
+        <v>1</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="181"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="159"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="78">
+        <v>2</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="182"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="147" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="59">
+        <v>3</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="81"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="148"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="78">
+        <v>4</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="82"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="147" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="162" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="59">
+        <v>5</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="183"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="148"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="78">
+        <v>6</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="184"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="147" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="152" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="59">
+        <v>7</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="185"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="151"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="78">
+        <v>8</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="186"/>
+      <c r="H11" s="107"/>
+    </row>
+    <row r="12" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="164" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="165" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="59">
+        <v>9</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="88"/>
+      <c r="H12" s="107"/>
+    </row>
+    <row r="13" spans="1:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="142"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="78">
+        <v>10</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="87"/>
+      <c r="H13" s="107"/>
+    </row>
+    <row r="14" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="139" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="59">
+        <v>11</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="88"/>
+      <c r="H14" s="107"/>
+    </row>
+    <row r="15" spans="1:9" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="142"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="78">
+        <v>12</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="87"/>
+      <c r="H15" s="107"/>
+    </row>
+    <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="139" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="59">
+        <v>13</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="88"/>
+      <c r="H16" s="107"/>
+    </row>
+    <row r="17" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="142"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="78">
+        <v>14</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="87"/>
+      <c r="H17" s="107"/>
+    </row>
+    <row r="18" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="139" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="59">
+        <v>15</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="88"/>
+      <c r="H18" s="107"/>
+    </row>
+    <row r="19" spans="1:8" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="142"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="78">
+        <v>16</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="87"/>
+      <c r="H19" s="107"/>
+    </row>
+    <row r="20" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="139" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="59">
+        <v>17</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="88"/>
+      <c r="H20" s="107"/>
+    </row>
+    <row r="21" spans="1:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="142"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="78">
+        <v>18</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="87"/>
+      <c r="H21" s="107"/>
+    </row>
+    <row r="22" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="139" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="59">
+        <v>19</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="107"/>
+    </row>
+    <row r="23" spans="1:8" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="142"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="59">
+        <v>20</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="107"/>
+    </row>
+    <row r="24" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="154" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="156" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="59">
+        <v>21</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="88"/>
+      <c r="H24" s="107"/>
+    </row>
+    <row r="25" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="155"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="59">
+        <v>22</v>
+      </c>
+      <c r="D25" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="187" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="87"/>
+      <c r="H25" s="107"/>
+    </row>
+    <row r="26" spans="1:8" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="143"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="1:8" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="145"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0015A8E4-1978-4B4F-9C61-B3D92861ABA7}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B75040-67A4-48DE-A150-FD78D533DF1B}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="79.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" customWidth="1"/>
+    <col min="8" max="1025" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="169">
+        <v>11</v>
+      </c>
+      <c r="B2" s="108" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="191"/>
+    </row>
+    <row r="3" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="178"/>
+      <c r="B3" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="192"/>
+    </row>
+    <row r="4" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="178"/>
+      <c r="B4" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="192"/>
+    </row>
+    <row r="5" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="178"/>
+      <c r="B5" s="125" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="192"/>
+    </row>
+    <row r="6" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="170"/>
+      <c r="B6" s="126" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="192"/>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="169">
+        <v>12</v>
+      </c>
+      <c r="B7" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="192"/>
+    </row>
+    <row r="8" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="178"/>
+      <c r="B8" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="192"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="178"/>
+      <c r="B9" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="192"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="178"/>
+      <c r="B10" s="125" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="192"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="178"/>
+      <c r="B11" s="125" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="192"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="170"/>
+      <c r="B12" s="125" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="192"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="173">
+        <v>21</v>
+      </c>
+      <c r="B13" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="193"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="173"/>
+      <c r="B14" s="96" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="193"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="173"/>
+      <c r="B15" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="193"/>
+    </row>
+    <row r="16" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="173"/>
+      <c r="B16" s="189" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="193"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="169">
+        <v>22</v>
+      </c>
+      <c r="B17" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="193"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="178"/>
+      <c r="B18" s="108" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="193"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="170"/>
+      <c r="B19" s="188" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="190" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="194"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -25285,7 +26466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A313E22F-DF01-4E5C-AF9D-4914F33333E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3F5A32-6325-4FAF-912B-A6E4B57D3758}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
